--- a/results/accel-glmm-results/glmm_main_effects_hab_season_lmb.xlsx
+++ b/results/accel-glmm-results/glmm_main_effects_hab_season_lmb.xlsx
@@ -383,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>20.9397778709715</v>
+        <v>20.7593992856908</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000325494925130106</v>
+        <v>0.000353414627585295</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>7665.93975679359</v>
+        <v>7663.05747456298</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -411,13 +411,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>202.601628463596</v>
+        <v>202.757161471031</v>
       </c>
       <c r="C4" t="n">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0000000000000000000000000000000000000462564907125019</v>
+        <v>0.000000000000000000000000000000000000042925838767237</v>
       </c>
     </row>
   </sheetData>
